--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70c7a3cce3a1a804/Escritorio/Clases/2do año/Algoritmos y estructuras de datos/Ambientes-UAM/control_ambientes_uam/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_B696A42F66D249756EF99DBBAF75C8934CF1BBD3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AF46791-3BD7-4CD2-953F-2082F4FB46FB}"/>
+  <bookViews>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>codigo_ambiente</t>
   </si>
@@ -19,9 +28,6 @@
     <t>tipo_ambiente</t>
   </si>
   <si>
-    <t>estado</t>
-  </si>
-  <si>
     <t>capacidad</t>
   </si>
   <si>
@@ -44,22 +50,40 @@
   </si>
   <si>
     <t>B105</t>
+  </si>
+  <si>
+    <t>disponibilidad</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>activo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,36 +92,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -287,20 +319,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -308,69 +345,88 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>30.0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/70c7a3cce3a1a804/Escritorio/Clases/2do año/Algoritmos y estructuras de datos/Ambientes-UAM/control_ambientes_uam/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Ambientes UAM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_B696A42F66D249756EF99DBBAF75C8934CF1BBD3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AF46791-3BD7-4CD2-953F-2082F4FB46FB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D3A867-39D6-4D7F-A2F6-B69BE7B98513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,10 @@
     <t>disponibilidad</t>
   </si>
   <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>activo</t>
+  </si>
+  <si>
+    <t>Activo</t>
   </si>
 </sst>
 </file>
@@ -108,9 +108,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,12 +332,12 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -348,13 +348,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -365,13 +365,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -382,13 +382,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -399,13 +399,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
     </row>
   </sheetData>

--- a/data/database.xlsx
+++ b/data/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Ambientes UAM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D3A867-39D6-4D7F-A2F6-B69BE7B98513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5D3832-F075-4DEE-8780-CFFF8B333080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="96">
   <si>
     <t>codigo_ambiente</t>
   </si>
@@ -34,9 +34,6 @@
     <t>C101</t>
   </si>
   <si>
-    <t>Auditorio</t>
-  </si>
-  <si>
     <t>Disponible</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>B103</t>
   </si>
   <si>
-    <t>Aula</t>
-  </si>
-  <si>
     <t>B105</t>
   </si>
   <si>
@@ -59,13 +53,268 @@
   </si>
   <si>
     <t>Activo</t>
+  </si>
+  <si>
+    <t>M103</t>
+  </si>
+  <si>
+    <t>M104</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>B104</t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>AULA</t>
+  </si>
+  <si>
+    <t>AUDITORIO</t>
+  </si>
+  <si>
+    <t>LABORATORIO DE COMPUTACION</t>
+  </si>
+  <si>
+    <t>LABORATORIO MAC</t>
+  </si>
+  <si>
+    <t>B107</t>
+  </si>
+  <si>
+    <t>B108</t>
+  </si>
+  <si>
+    <t>B109</t>
+  </si>
+  <si>
+    <t>B201</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>B204</t>
+  </si>
+  <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>B206</t>
+  </si>
+  <si>
+    <t>B207</t>
+  </si>
+  <si>
+    <t>B208</t>
+  </si>
+  <si>
+    <t>B209</t>
+  </si>
+  <si>
+    <t>B210</t>
+  </si>
+  <si>
+    <t>C107</t>
+  </si>
+  <si>
+    <t>C108/109</t>
+  </si>
+  <si>
+    <t>C110</t>
+  </si>
+  <si>
+    <t>C201</t>
+  </si>
+  <si>
+    <t>C202</t>
+  </si>
+  <si>
+    <t>C203</t>
+  </si>
+  <si>
+    <t>C204</t>
+  </si>
+  <si>
+    <t>C205</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>C209</t>
+  </si>
+  <si>
+    <t>C210</t>
+  </si>
+  <si>
+    <t>C211</t>
+  </si>
+  <si>
+    <t>C301</t>
+  </si>
+  <si>
+    <t>C302</t>
+  </si>
+  <si>
+    <t>C303</t>
+  </si>
+  <si>
+    <t>C304</t>
+  </si>
+  <si>
+    <t>C307</t>
+  </si>
+  <si>
+    <t>C308</t>
+  </si>
+  <si>
+    <t>C309</t>
+  </si>
+  <si>
+    <t>C310</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>F103</t>
+  </si>
+  <si>
+    <t>F104</t>
+  </si>
+  <si>
+    <t>F105</t>
+  </si>
+  <si>
+    <t>C305</t>
+  </si>
+  <si>
+    <t>G201</t>
+  </si>
+  <si>
+    <t>M101</t>
+  </si>
+  <si>
+    <t>M102</t>
+  </si>
+  <si>
+    <t>M201</t>
+  </si>
+  <si>
+    <t>M202</t>
+  </si>
+  <si>
+    <t>M203</t>
+  </si>
+  <si>
+    <t>M204</t>
+  </si>
+  <si>
+    <t>M301</t>
+  </si>
+  <si>
+    <t>M302</t>
+  </si>
+  <si>
+    <t>M303</t>
+  </si>
+  <si>
+    <t>M304</t>
+  </si>
+  <si>
+    <t>C206</t>
+  </si>
+  <si>
+    <t>A303</t>
+  </si>
+  <si>
+    <t>JAGUAR CENTER</t>
+  </si>
+  <si>
+    <t>CANCHA DE SOFTBOL</t>
+  </si>
+  <si>
+    <t>CANCHA DE FUTBOL</t>
+  </si>
+  <si>
+    <t>J101</t>
+  </si>
+  <si>
+    <t>A302</t>
+  </si>
+  <si>
+    <t>A304</t>
+  </si>
+  <si>
+    <t>D101</t>
+  </si>
+  <si>
+    <t>D102</t>
+  </si>
+  <si>
+    <t>C103</t>
+  </si>
+  <si>
+    <t>C104</t>
+  </si>
+  <si>
+    <t>Jaguar Corner</t>
+  </si>
+  <si>
+    <t>Aula de Música</t>
+  </si>
+  <si>
+    <t>C106</t>
+  </si>
+  <si>
+    <t>O205</t>
+  </si>
+  <si>
+    <t>O206</t>
+  </si>
+  <si>
+    <t>O201</t>
+  </si>
+  <si>
+    <t>O202</t>
+  </si>
+  <si>
+    <t>O204</t>
+  </si>
+  <si>
+    <t>O203</t>
+  </si>
+  <si>
+    <t>SALA DE REUNION/TUTORIA</t>
+  </si>
+  <si>
+    <t>AUDITORIO CENTRAL</t>
+  </si>
+  <si>
+    <t>CICLOGRAMA/SET DE FOTOGRAFIA</t>
+  </si>
+  <si>
+    <t>TALLER/SALA DE DIBUJO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -76,14 +325,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -107,10 +348,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -329,13 +569,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -345,10 +589,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -356,50 +600,50 @@
     </row>
     <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -407,23 +651,1329 @@
     </row>
     <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
